--- a/assets/departments_roles.xlsx
+++ b/assets/departments_roles.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anguyen\Downloads\CVRO Sussession Planning - Test\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E77D9F42-E186-484C-81D4-07A5C292D800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2110AC-764A-45C4-AAF2-90020A47731E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="88">
   <si>
     <t>department_key</t>
   </si>
@@ -42,256 +53,253 @@
     <t>Asia Human Resources</t>
   </si>
   <si>
-    <t>Senior Team Leader of Human Resources</t>
-  </si>
-  <si>
-    <t>Talent Development Project Leader</t>
-  </si>
-  <si>
-    <t>Senior Talent Development Specialist</t>
-  </si>
-  <si>
-    <t>Talent Development Coordinator</t>
-  </si>
-  <si>
-    <t>Talent Development Specialist</t>
-  </si>
-  <si>
     <t>cgi</t>
   </si>
   <si>
     <t>CGI</t>
   </si>
   <si>
-    <t>3D Artist</t>
-  </si>
-  <si>
-    <t>3D Material Artist</t>
-  </si>
-  <si>
-    <t>CGI Photographer</t>
-  </si>
-  <si>
     <t>eng</t>
   </si>
   <si>
     <t>Engineering</t>
   </si>
   <si>
-    <t>Engineering Project Manager</t>
-  </si>
-  <si>
-    <t>Senior Team Leader of Compliance Engineering</t>
-  </si>
-  <si>
-    <t>Senior Team Leader of Product Engineering</t>
-  </si>
-  <si>
-    <t>Team Leader of Product Engineering</t>
-  </si>
-  <si>
-    <t>Team Leader of System Process Engineering</t>
-  </si>
-  <si>
-    <t>Compliance Engineer</t>
-  </si>
-  <si>
-    <t>Engineering Assistant</t>
-  </si>
-  <si>
-    <t>Industrial Engineer</t>
-  </si>
-  <si>
-    <t>Packaging Engineer</t>
-  </si>
-  <si>
-    <t>Packaging Engineering Specialist</t>
-  </si>
-  <si>
-    <t>Process Engineer</t>
-  </si>
-  <si>
-    <t>Product Engineer</t>
-  </si>
-  <si>
-    <t>Project Engineer</t>
-  </si>
-  <si>
-    <t>Senior Compliance Engineer</t>
-  </si>
-  <si>
-    <t>Senior Industrial Engineer</t>
-  </si>
-  <si>
-    <t>Senior System Process Engineer</t>
-  </si>
-  <si>
-    <t>System Process Engineer</t>
-  </si>
-  <si>
     <t>hradmin</t>
   </si>
   <si>
     <t>HR and Administration</t>
   </si>
   <si>
-    <t>Accountant</t>
-  </si>
-  <si>
-    <t>HR and Admin Officer</t>
-  </si>
-  <si>
-    <t>IT Specialist</t>
-  </si>
-  <si>
-    <t>Recruiting Specialist</t>
-  </si>
-  <si>
-    <t>Senior Accountant</t>
-  </si>
-  <si>
-    <t>Senior HR and Admin Officer</t>
-  </si>
-  <si>
-    <t>Senior IT Specialist</t>
-  </si>
-  <si>
     <t>pd</t>
   </si>
   <si>
     <t>Product Development</t>
   </si>
   <si>
-    <t>Product Development Project Leader</t>
-  </si>
-  <si>
-    <t>Senior Team Leader of Product Development</t>
-  </si>
-  <si>
-    <t>Team Leader of Product Development</t>
-  </si>
-  <si>
-    <t>Team Leader of Product Development Material</t>
-  </si>
-  <si>
-    <t>Finishing Specialist</t>
-  </si>
-  <si>
-    <t>Finishing Technician</t>
-  </si>
-  <si>
-    <t>Product Developer</t>
-  </si>
-  <si>
-    <t>Product Development Administrator</t>
-  </si>
-  <si>
-    <t>Senior Product Developer</t>
-  </si>
-  <si>
     <t>qa</t>
   </si>
   <si>
     <t>Quality Assurance</t>
   </si>
   <si>
-    <t>Vendor Champion</t>
-  </si>
-  <si>
-    <t>Team Leader of Performance Testing</t>
-  </si>
-  <si>
-    <t>Field Testing Coordinator</t>
-  </si>
-  <si>
-    <t>Quality Assurance Administrator</t>
-  </si>
-  <si>
-    <t>Quality Assurance CI</t>
-  </si>
-  <si>
-    <t>Quality Control Inspector</t>
-  </si>
-  <si>
-    <t>Senior Quality Assurance CI</t>
-  </si>
-  <si>
     <t>sqe</t>
   </si>
   <si>
     <t>Sample Quality Engineering</t>
   </si>
   <si>
-    <t>Sample Quality Engineer</t>
-  </si>
-  <si>
-    <t>Senior Sample Quality Engineer</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>Strategic Sourcing</t>
   </si>
   <si>
-    <t>Team Leader of Material Assurance</t>
-  </si>
-  <si>
-    <t>Cost Analyst</t>
-  </si>
-  <si>
-    <t>Material Assurance Specialist</t>
-  </si>
-  <si>
-    <t>Material Sourcing Specialist</t>
-  </si>
-  <si>
     <t>se</t>
   </si>
   <si>
     <t>Strategy Execution</t>
   </si>
   <si>
-    <t>Process Integration Associate</t>
-  </si>
-  <si>
-    <t>Solutions Development Specialist</t>
-  </si>
-  <si>
-    <t>Strategy Specialist</t>
-  </si>
-  <si>
     <t>vp</t>
   </si>
   <si>
     <t>HoDs - Evaluate by the VP</t>
   </si>
   <si>
-    <t>Team Leader of CGI</t>
-  </si>
-  <si>
-    <t>Manager of Engineering</t>
-  </si>
-  <si>
-    <t>Manager of HR and Admin</t>
-  </si>
-  <si>
-    <t>Director of Product Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asia</t>
-  </si>
-  <si>
-    <t>Director of Quality</t>
-  </si>
-  <si>
-    <t>Sample Quality Engineering Project Leader</t>
-  </si>
-  <si>
-    <t>Manager of Strategic Sourcing</t>
-  </si>
-  <si>
-    <t>Manager of Strategy Execution</t>
+    <t>"Senior Team Leader of Human Resources"</t>
+  </si>
+  <si>
+    <t>"Talent Development Project Leader"</t>
+  </si>
+  <si>
+    <t>"Senior Talent Development Specialist"</t>
+  </si>
+  <si>
+    <t>"Talent Development Coordinator"</t>
+  </si>
+  <si>
+    <t>"Talent Development Specialist"</t>
+  </si>
+  <si>
+    <t>"3D Artist"</t>
+  </si>
+  <si>
+    <t>"3D Material Artist"</t>
+  </si>
+  <si>
+    <t>"CGI Photographer"</t>
+  </si>
+  <si>
+    <t>"Engineering Project Manager"</t>
+  </si>
+  <si>
+    <t>"Senior Team Leader of Compliance Engineering"</t>
+  </si>
+  <si>
+    <t>"Senior Team Leader of Product Engineering"</t>
+  </si>
+  <si>
+    <t>"Team Leader of Product Engineering"</t>
+  </si>
+  <si>
+    <t>"Team Leader of System Process Engineering"</t>
+  </si>
+  <si>
+    <t>"Compliance Engineer"</t>
+  </si>
+  <si>
+    <t>"Engineering Assistant"</t>
+  </si>
+  <si>
+    <t>"Industrial Engineer"</t>
+  </si>
+  <si>
+    <t>"Packaging Engineer"</t>
+  </si>
+  <si>
+    <t>"Packaging Engineering Specialist"</t>
+  </si>
+  <si>
+    <t>"Process Engineer"</t>
+  </si>
+  <si>
+    <t>"Product Engineer"</t>
+  </si>
+  <si>
+    <t>"Project Engineer"</t>
+  </si>
+  <si>
+    <t>"Senior Compliance Engineer"</t>
+  </si>
+  <si>
+    <t>"Senior Industrial Engineer"</t>
+  </si>
+  <si>
+    <t>"Senior System Process Engineer"</t>
+  </si>
+  <si>
+    <t>"System Process Engineer"</t>
+  </si>
+  <si>
+    <t>"Accountant"</t>
+  </si>
+  <si>
+    <t>"HR and Admin Officer"</t>
+  </si>
+  <si>
+    <t>"IT Specialist"</t>
+  </si>
+  <si>
+    <t>"Recruiting Specialist"</t>
+  </si>
+  <si>
+    <t>"Senior Accountant"</t>
+  </si>
+  <si>
+    <t>"Senior HR and Admin Officer"</t>
+  </si>
+  <si>
+    <t>"Senior IT Specialist"</t>
+  </si>
+  <si>
+    <t>"Product Development Project Leader"</t>
+  </si>
+  <si>
+    <t>"Senior Team Leader of Product Development"</t>
+  </si>
+  <si>
+    <t>"Team Leader of Product Development"</t>
+  </si>
+  <si>
+    <t>"Team Leader of Product Development Material"</t>
+  </si>
+  <si>
+    <t>"Finishing Specialist"</t>
+  </si>
+  <si>
+    <t>"Finishing Technician"</t>
+  </si>
+  <si>
+    <t>"Product Developer"</t>
+  </si>
+  <si>
+    <t>"Product Development Administrator"</t>
+  </si>
+  <si>
+    <t>"Senior Product Developer"</t>
+  </si>
+  <si>
+    <t>"Vendor Champion"</t>
+  </si>
+  <si>
+    <t>"Team Leader of Performance Testing"</t>
+  </si>
+  <si>
+    <t>"Field Testing Coordinator"</t>
+  </si>
+  <si>
+    <t>"Quality Assurance Administrator"</t>
+  </si>
+  <si>
+    <t>"Quality Assurance CI"</t>
+  </si>
+  <si>
+    <t>"Quality Control Inspector"</t>
+  </si>
+  <si>
+    <t>"Senior Quality Assurance CI"</t>
+  </si>
+  <si>
+    <t>"Sample Quality Engineer"</t>
+  </si>
+  <si>
+    <t>"Senior Sample Quality Engineer"</t>
+  </si>
+  <si>
+    <t>"Team Leader of Material Assurance"</t>
+  </si>
+  <si>
+    <t>"Cost Analyst"</t>
+  </si>
+  <si>
+    <t>"Material Assurance Specialist"</t>
+  </si>
+  <si>
+    <t>"Material Sourcing Specialist"</t>
+  </si>
+  <si>
+    <t>"Process Integration Associate"</t>
+  </si>
+  <si>
+    <t>"Solutions Development Specialist"</t>
+  </si>
+  <si>
+    <t>"Strategy Specialist"</t>
+  </si>
+  <si>
+    <t>"Team Leader of CGI"</t>
+  </si>
+  <si>
+    <t>"Manager of Engineering"</t>
+  </si>
+  <si>
+    <t>"Manager of HR and Admin"</t>
+  </si>
+  <si>
+    <t>"Director of Product Development,  Asia"</t>
+  </si>
+  <si>
+    <t>"Director of Quality,  Asia"</t>
+  </si>
+  <si>
+    <t>"Sample Quality Engineering Project Leader"</t>
+  </si>
+  <si>
+    <t>"Manager of Strategic Sourcing"</t>
+  </si>
+  <si>
+    <t>"Manager of Strategy Execution"</t>
   </si>
 </sst>
 </file>
@@ -609,13 +617,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="40.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -636,7 +647,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -647,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -658,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -669,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -680,673 +691,667 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C61" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
         <v>83</v>
       </c>
-      <c r="D62" t="s">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="s">
         <v>85</v>
-      </c>
-      <c r="D63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/assets/departments_roles.xlsx
+++ b/assets/departments_roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anguyen\Downloads\CVRO Sussession Planning - Test\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2110AC-764A-45C4-AAF2-90020A47731E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140138EF-BC95-4F2C-B0B1-66DC623C7C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,10 +38,235 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="88">
   <si>
-    <t>department_key</t>
-  </si>
-  <si>
-    <t>department_name</t>
+    <t>Asia Human Resources</t>
+  </si>
+  <si>
+    <t>CGI</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>HR and Administration</t>
+  </si>
+  <si>
+    <t>Product Development</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
+    <t>Sample Quality Engineering</t>
+  </si>
+  <si>
+    <t>Strategic Sourcing</t>
+  </si>
+  <si>
+    <t>Strategy Execution</t>
+  </si>
+  <si>
+    <t>HoDs - Evaluate by the VP</t>
+  </si>
+  <si>
+    <t>"Senior Team Leader of Human Resources"</t>
+  </si>
+  <si>
+    <t>"Talent Development Project Leader"</t>
+  </si>
+  <si>
+    <t>"Senior Talent Development Specialist"</t>
+  </si>
+  <si>
+    <t>"Talent Development Coordinator"</t>
+  </si>
+  <si>
+    <t>"Talent Development Specialist"</t>
+  </si>
+  <si>
+    <t>"3D Artist"</t>
+  </si>
+  <si>
+    <t>"3D Material Artist"</t>
+  </si>
+  <si>
+    <t>"CGI Photographer"</t>
+  </si>
+  <si>
+    <t>"Engineering Project Manager"</t>
+  </si>
+  <si>
+    <t>"Senior Team Leader of Compliance Engineering"</t>
+  </si>
+  <si>
+    <t>"Senior Team Leader of Product Engineering"</t>
+  </si>
+  <si>
+    <t>"Team Leader of Product Engineering"</t>
+  </si>
+  <si>
+    <t>"Team Leader of System Process Engineering"</t>
+  </si>
+  <si>
+    <t>"Compliance Engineer"</t>
+  </si>
+  <si>
+    <t>"Engineering Assistant"</t>
+  </si>
+  <si>
+    <t>"Industrial Engineer"</t>
+  </si>
+  <si>
+    <t>"Packaging Engineer"</t>
+  </si>
+  <si>
+    <t>"Packaging Engineering Specialist"</t>
+  </si>
+  <si>
+    <t>"Process Engineer"</t>
+  </si>
+  <si>
+    <t>"Product Engineer"</t>
+  </si>
+  <si>
+    <t>"Project Engineer"</t>
+  </si>
+  <si>
+    <t>"Senior Compliance Engineer"</t>
+  </si>
+  <si>
+    <t>"Senior Industrial Engineer"</t>
+  </si>
+  <si>
+    <t>"Senior System Process Engineer"</t>
+  </si>
+  <si>
+    <t>"System Process Engineer"</t>
+  </si>
+  <si>
+    <t>"Accountant"</t>
+  </si>
+  <si>
+    <t>"HR and Admin Officer"</t>
+  </si>
+  <si>
+    <t>"IT Specialist"</t>
+  </si>
+  <si>
+    <t>"Recruiting Specialist"</t>
+  </si>
+  <si>
+    <t>"Senior Accountant"</t>
+  </si>
+  <si>
+    <t>"Senior HR and Admin Officer"</t>
+  </si>
+  <si>
+    <t>"Senior IT Specialist"</t>
+  </si>
+  <si>
+    <t>"Product Development Project Leader"</t>
+  </si>
+  <si>
+    <t>"Senior Team Leader of Product Development"</t>
+  </si>
+  <si>
+    <t>"Team Leader of Product Development"</t>
+  </si>
+  <si>
+    <t>"Team Leader of Product Development Material"</t>
+  </si>
+  <si>
+    <t>"Finishing Specialist"</t>
+  </si>
+  <si>
+    <t>"Finishing Technician"</t>
+  </si>
+  <si>
+    <t>"Product Developer"</t>
+  </si>
+  <si>
+    <t>"Product Development Administrator"</t>
+  </si>
+  <si>
+    <t>"Senior Product Developer"</t>
+  </si>
+  <si>
+    <t>"Vendor Champion"</t>
+  </si>
+  <si>
+    <t>"Team Leader of Performance Testing"</t>
+  </si>
+  <si>
+    <t>"Field Testing Coordinator"</t>
+  </si>
+  <si>
+    <t>"Quality Assurance Administrator"</t>
+  </si>
+  <si>
+    <t>"Quality Assurance CI"</t>
+  </si>
+  <si>
+    <t>"Quality Control Inspector"</t>
+  </si>
+  <si>
+    <t>"Senior Quality Assurance CI"</t>
+  </si>
+  <si>
+    <t>"Sample Quality Engineer"</t>
+  </si>
+  <si>
+    <t>"Senior Sample Quality Engineer"</t>
+  </si>
+  <si>
+    <t>"Team Leader of Material Assurance"</t>
+  </si>
+  <si>
+    <t>"Cost Analyst"</t>
+  </si>
+  <si>
+    <t>"Material Assurance Specialist"</t>
+  </si>
+  <si>
+    <t>"Material Sourcing Specialist"</t>
+  </si>
+  <si>
+    <t>"Process Integration Associate"</t>
+  </si>
+  <si>
+    <t>"Solutions Development Specialist"</t>
+  </si>
+  <si>
+    <t>"Strategy Specialist"</t>
+  </si>
+  <si>
+    <t>"Team Leader of CGI"</t>
+  </si>
+  <si>
+    <t>"Manager of Engineering"</t>
+  </si>
+  <si>
+    <t>"Manager of HR and Admin"</t>
+  </si>
+  <si>
+    <t>"Director of Product Development,  Asia"</t>
+  </si>
+  <si>
+    <t>"Director of Quality,  Asia"</t>
+  </si>
+  <si>
+    <t>"Sample Quality Engineering Project Leader"</t>
+  </si>
+  <si>
+    <t>"Manager of Strategic Sourcing"</t>
+  </si>
+  <si>
+    <t>"Manager of Strategy Execution"</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>role</t>
@@ -50,256 +275,31 @@
     <t>ahr</t>
   </si>
   <si>
-    <t>Asia Human Resources</t>
-  </si>
-  <si>
     <t>cgi</t>
   </si>
   <si>
-    <t>CGI</t>
-  </si>
-  <si>
     <t>eng</t>
   </si>
   <si>
-    <t>Engineering</t>
-  </si>
-  <si>
     <t>hradmin</t>
   </si>
   <si>
-    <t>HR and Administration</t>
-  </si>
-  <si>
     <t>pd</t>
   </si>
   <si>
-    <t>Product Development</t>
-  </si>
-  <si>
     <t>qa</t>
   </si>
   <si>
-    <t>Quality Assurance</t>
-  </si>
-  <si>
     <t>sqe</t>
   </si>
   <si>
-    <t>Sample Quality Engineering</t>
+    <t>se</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>Strategic Sourcing</t>
-  </si>
-  <si>
-    <t>se</t>
-  </si>
-  <si>
-    <t>Strategy Execution</t>
-  </si>
-  <si>
     <t>vp</t>
-  </si>
-  <si>
-    <t>HoDs - Evaluate by the VP</t>
-  </si>
-  <si>
-    <t>"Senior Team Leader of Human Resources"</t>
-  </si>
-  <si>
-    <t>"Talent Development Project Leader"</t>
-  </si>
-  <si>
-    <t>"Senior Talent Development Specialist"</t>
-  </si>
-  <si>
-    <t>"Talent Development Coordinator"</t>
-  </si>
-  <si>
-    <t>"Talent Development Specialist"</t>
-  </si>
-  <si>
-    <t>"3D Artist"</t>
-  </si>
-  <si>
-    <t>"3D Material Artist"</t>
-  </si>
-  <si>
-    <t>"CGI Photographer"</t>
-  </si>
-  <si>
-    <t>"Engineering Project Manager"</t>
-  </si>
-  <si>
-    <t>"Senior Team Leader of Compliance Engineering"</t>
-  </si>
-  <si>
-    <t>"Senior Team Leader of Product Engineering"</t>
-  </si>
-  <si>
-    <t>"Team Leader of Product Engineering"</t>
-  </si>
-  <si>
-    <t>"Team Leader of System Process Engineering"</t>
-  </si>
-  <si>
-    <t>"Compliance Engineer"</t>
-  </si>
-  <si>
-    <t>"Engineering Assistant"</t>
-  </si>
-  <si>
-    <t>"Industrial Engineer"</t>
-  </si>
-  <si>
-    <t>"Packaging Engineer"</t>
-  </si>
-  <si>
-    <t>"Packaging Engineering Specialist"</t>
-  </si>
-  <si>
-    <t>"Process Engineer"</t>
-  </si>
-  <si>
-    <t>"Product Engineer"</t>
-  </si>
-  <si>
-    <t>"Project Engineer"</t>
-  </si>
-  <si>
-    <t>"Senior Compliance Engineer"</t>
-  </si>
-  <si>
-    <t>"Senior Industrial Engineer"</t>
-  </si>
-  <si>
-    <t>"Senior System Process Engineer"</t>
-  </si>
-  <si>
-    <t>"System Process Engineer"</t>
-  </si>
-  <si>
-    <t>"Accountant"</t>
-  </si>
-  <si>
-    <t>"HR and Admin Officer"</t>
-  </si>
-  <si>
-    <t>"IT Specialist"</t>
-  </si>
-  <si>
-    <t>"Recruiting Specialist"</t>
-  </si>
-  <si>
-    <t>"Senior Accountant"</t>
-  </si>
-  <si>
-    <t>"Senior HR and Admin Officer"</t>
-  </si>
-  <si>
-    <t>"Senior IT Specialist"</t>
-  </si>
-  <si>
-    <t>"Product Development Project Leader"</t>
-  </si>
-  <si>
-    <t>"Senior Team Leader of Product Development"</t>
-  </si>
-  <si>
-    <t>"Team Leader of Product Development"</t>
-  </si>
-  <si>
-    <t>"Team Leader of Product Development Material"</t>
-  </si>
-  <si>
-    <t>"Finishing Specialist"</t>
-  </si>
-  <si>
-    <t>"Finishing Technician"</t>
-  </si>
-  <si>
-    <t>"Product Developer"</t>
-  </si>
-  <si>
-    <t>"Product Development Administrator"</t>
-  </si>
-  <si>
-    <t>"Senior Product Developer"</t>
-  </si>
-  <si>
-    <t>"Vendor Champion"</t>
-  </si>
-  <si>
-    <t>"Team Leader of Performance Testing"</t>
-  </si>
-  <si>
-    <t>"Field Testing Coordinator"</t>
-  </si>
-  <si>
-    <t>"Quality Assurance Administrator"</t>
-  </si>
-  <si>
-    <t>"Quality Assurance CI"</t>
-  </si>
-  <si>
-    <t>"Quality Control Inspector"</t>
-  </si>
-  <si>
-    <t>"Senior Quality Assurance CI"</t>
-  </si>
-  <si>
-    <t>"Sample Quality Engineer"</t>
-  </si>
-  <si>
-    <t>"Senior Sample Quality Engineer"</t>
-  </si>
-  <si>
-    <t>"Team Leader of Material Assurance"</t>
-  </si>
-  <si>
-    <t>"Cost Analyst"</t>
-  </si>
-  <si>
-    <t>"Material Assurance Specialist"</t>
-  </si>
-  <si>
-    <t>"Material Sourcing Specialist"</t>
-  </si>
-  <si>
-    <t>"Process Integration Associate"</t>
-  </si>
-  <si>
-    <t>"Solutions Development Specialist"</t>
-  </si>
-  <si>
-    <t>"Strategy Specialist"</t>
-  </si>
-  <si>
-    <t>"Team Leader of CGI"</t>
-  </si>
-  <si>
-    <t>"Manager of Engineering"</t>
-  </si>
-  <si>
-    <t>"Manager of HR and Admin"</t>
-  </si>
-  <si>
-    <t>"Director of Product Development,  Asia"</t>
-  </si>
-  <si>
-    <t>"Director of Quality,  Asia"</t>
-  </si>
-  <si>
-    <t>"Sample Quality Engineering Project Leader"</t>
-  </si>
-  <si>
-    <t>"Manager of Strategic Sourcing"</t>
-  </si>
-  <si>
-    <t>"Manager of Strategy Execution"</t>
   </si>
 </sst>
 </file>
@@ -619,739 +619,740 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/assets/departments_roles.xlsx
+++ b/assets/departments_roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anguyen\Downloads\CVRO Sussession Planning - Test\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140138EF-BC95-4F2C-B0B1-66DC623C7C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F712392-AEB1-4845-83D1-5DCF29BDBAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="94">
   <si>
     <t>Asia Human Resources</t>
   </si>
@@ -68,201 +68,6 @@
     <t>HoDs - Evaluate by the VP</t>
   </si>
   <si>
-    <t>"Senior Team Leader of Human Resources"</t>
-  </si>
-  <si>
-    <t>"Talent Development Project Leader"</t>
-  </si>
-  <si>
-    <t>"Senior Talent Development Specialist"</t>
-  </si>
-  <si>
-    <t>"Talent Development Coordinator"</t>
-  </si>
-  <si>
-    <t>"Talent Development Specialist"</t>
-  </si>
-  <si>
-    <t>"3D Artist"</t>
-  </si>
-  <si>
-    <t>"3D Material Artist"</t>
-  </si>
-  <si>
-    <t>"CGI Photographer"</t>
-  </si>
-  <si>
-    <t>"Engineering Project Manager"</t>
-  </si>
-  <si>
-    <t>"Senior Team Leader of Compliance Engineering"</t>
-  </si>
-  <si>
-    <t>"Senior Team Leader of Product Engineering"</t>
-  </si>
-  <si>
-    <t>"Team Leader of Product Engineering"</t>
-  </si>
-  <si>
-    <t>"Team Leader of System Process Engineering"</t>
-  </si>
-  <si>
-    <t>"Compliance Engineer"</t>
-  </si>
-  <si>
-    <t>"Engineering Assistant"</t>
-  </si>
-  <si>
-    <t>"Industrial Engineer"</t>
-  </si>
-  <si>
-    <t>"Packaging Engineer"</t>
-  </si>
-  <si>
-    <t>"Packaging Engineering Specialist"</t>
-  </si>
-  <si>
-    <t>"Process Engineer"</t>
-  </si>
-  <si>
-    <t>"Product Engineer"</t>
-  </si>
-  <si>
-    <t>"Project Engineer"</t>
-  </si>
-  <si>
-    <t>"Senior Compliance Engineer"</t>
-  </si>
-  <si>
-    <t>"Senior Industrial Engineer"</t>
-  </si>
-  <si>
-    <t>"Senior System Process Engineer"</t>
-  </si>
-  <si>
-    <t>"System Process Engineer"</t>
-  </si>
-  <si>
-    <t>"Accountant"</t>
-  </si>
-  <si>
-    <t>"HR and Admin Officer"</t>
-  </si>
-  <si>
-    <t>"IT Specialist"</t>
-  </si>
-  <si>
-    <t>"Recruiting Specialist"</t>
-  </si>
-  <si>
-    <t>"Senior Accountant"</t>
-  </si>
-  <si>
-    <t>"Senior HR and Admin Officer"</t>
-  </si>
-  <si>
-    <t>"Senior IT Specialist"</t>
-  </si>
-  <si>
-    <t>"Product Development Project Leader"</t>
-  </si>
-  <si>
-    <t>"Senior Team Leader of Product Development"</t>
-  </si>
-  <si>
-    <t>"Team Leader of Product Development"</t>
-  </si>
-  <si>
-    <t>"Team Leader of Product Development Material"</t>
-  </si>
-  <si>
-    <t>"Finishing Specialist"</t>
-  </si>
-  <si>
-    <t>"Finishing Technician"</t>
-  </si>
-  <si>
-    <t>"Product Developer"</t>
-  </si>
-  <si>
-    <t>"Product Development Administrator"</t>
-  </si>
-  <si>
-    <t>"Senior Product Developer"</t>
-  </si>
-  <si>
-    <t>"Vendor Champion"</t>
-  </si>
-  <si>
-    <t>"Team Leader of Performance Testing"</t>
-  </si>
-  <si>
-    <t>"Field Testing Coordinator"</t>
-  </si>
-  <si>
-    <t>"Quality Assurance Administrator"</t>
-  </si>
-  <si>
-    <t>"Quality Assurance CI"</t>
-  </si>
-  <si>
-    <t>"Quality Control Inspector"</t>
-  </si>
-  <si>
-    <t>"Senior Quality Assurance CI"</t>
-  </si>
-  <si>
-    <t>"Sample Quality Engineer"</t>
-  </si>
-  <si>
-    <t>"Senior Sample Quality Engineer"</t>
-  </si>
-  <si>
-    <t>"Team Leader of Material Assurance"</t>
-  </si>
-  <si>
-    <t>"Cost Analyst"</t>
-  </si>
-  <si>
-    <t>"Material Assurance Specialist"</t>
-  </si>
-  <si>
-    <t>"Material Sourcing Specialist"</t>
-  </si>
-  <si>
-    <t>"Process Integration Associate"</t>
-  </si>
-  <si>
-    <t>"Solutions Development Specialist"</t>
-  </si>
-  <si>
-    <t>"Strategy Specialist"</t>
-  </si>
-  <si>
-    <t>"Team Leader of CGI"</t>
-  </si>
-  <si>
-    <t>"Manager of Engineering"</t>
-  </si>
-  <si>
-    <t>"Manager of HR and Admin"</t>
-  </si>
-  <si>
-    <t>"Director of Product Development,  Asia"</t>
-  </si>
-  <si>
-    <t>"Director of Quality,  Asia"</t>
-  </si>
-  <si>
-    <t>"Sample Quality Engineering Project Leader"</t>
-  </si>
-  <si>
-    <t>"Manager of Strategic Sourcing"</t>
-  </si>
-  <si>
-    <t>"Manager of Strategy Execution"</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -300,6 +105,219 @@
   </si>
   <si>
     <t>vp</t>
+  </si>
+  <si>
+    <t>Senior Team Leader of Human Resources</t>
+  </si>
+  <si>
+    <t>Talent Development Project Leader</t>
+  </si>
+  <si>
+    <t>Senior Talent Development Specialist</t>
+  </si>
+  <si>
+    <t>Talent Development Coordinator</t>
+  </si>
+  <si>
+    <t>Talent Development Specialist</t>
+  </si>
+  <si>
+    <t>3D Artist</t>
+  </si>
+  <si>
+    <t>3D Material Artist</t>
+  </si>
+  <si>
+    <t>CGI Photographer</t>
+  </si>
+  <si>
+    <t>Engineering Project Manager</t>
+  </si>
+  <si>
+    <t>Senior Team Leader of Compliance Engineering</t>
+  </si>
+  <si>
+    <t>Senior Team Leader of Product Engineering</t>
+  </si>
+  <si>
+    <t>Team Leader of Product Engineering</t>
+  </si>
+  <si>
+    <t>Team Leader of System Process Engineering</t>
+  </si>
+  <si>
+    <t>Compliance Engineer</t>
+  </si>
+  <si>
+    <t>Engineering Assistant</t>
+  </si>
+  <si>
+    <t>Industrial Engineer</t>
+  </si>
+  <si>
+    <t>Packaging Engineer</t>
+  </si>
+  <si>
+    <t>Packaging Engineering Specialist</t>
+  </si>
+  <si>
+    <t>Process Engineer</t>
+  </si>
+  <si>
+    <t>Product Engineer</t>
+  </si>
+  <si>
+    <t>Project Engineer</t>
+  </si>
+  <si>
+    <t>Senior Compliance Engineer</t>
+  </si>
+  <si>
+    <t>Senior Industrial Engineer</t>
+  </si>
+  <si>
+    <t>Senior System Process Engineer</t>
+  </si>
+  <si>
+    <t>System Process Engineer</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>HR and Admin Officer</t>
+  </si>
+  <si>
+    <t>IT Specialist</t>
+  </si>
+  <si>
+    <t>Recruiting Specialist</t>
+  </si>
+  <si>
+    <t>Senior Accountant</t>
+  </si>
+  <si>
+    <t>Senior HR and Admin Officer</t>
+  </si>
+  <si>
+    <t>Senior IT Specialist</t>
+  </si>
+  <si>
+    <t>Product Development Project Leader</t>
+  </si>
+  <si>
+    <t>Senior Team Leader of Product Development</t>
+  </si>
+  <si>
+    <t>Team Leader of Product Development</t>
+  </si>
+  <si>
+    <t>Team Leader of Product Development Material</t>
+  </si>
+  <si>
+    <t>Finishing Specialist</t>
+  </si>
+  <si>
+    <t>Finishing Technician</t>
+  </si>
+  <si>
+    <t>Product Developer</t>
+  </si>
+  <si>
+    <t>Product Development Administrator</t>
+  </si>
+  <si>
+    <t>Senior Product Developer</t>
+  </si>
+  <si>
+    <t>Vendor Champion</t>
+  </si>
+  <si>
+    <t>Team Leader of Performance Testing</t>
+  </si>
+  <si>
+    <t>Field Testing Coordinator</t>
+  </si>
+  <si>
+    <t>Quality Assurance Administrator</t>
+  </si>
+  <si>
+    <t>Quality Assurance CI</t>
+  </si>
+  <si>
+    <t>Quality Control Inspector</t>
+  </si>
+  <si>
+    <t>Senior Quality Assurance CI</t>
+  </si>
+  <si>
+    <t>Sample Quality Engineer</t>
+  </si>
+  <si>
+    <t>Senior Sample Quality Engineer</t>
+  </si>
+  <si>
+    <t>Team Leader of Material Assurance</t>
+  </si>
+  <si>
+    <t>Cost Analyst</t>
+  </si>
+  <si>
+    <t>Material Assurance Specialist</t>
+  </si>
+  <si>
+    <t>Material Sourcing Specialist</t>
+  </si>
+  <si>
+    <t>Process Integration Associate</t>
+  </si>
+  <si>
+    <t>Solutions Development Specialist</t>
+  </si>
+  <si>
+    <t>Strategy Specialist</t>
+  </si>
+  <si>
+    <t>Team Leader of CGI</t>
+  </si>
+  <si>
+    <t>Manager of Engineering</t>
+  </si>
+  <si>
+    <t>Manager of HR and Admin</t>
+  </si>
+  <si>
+    <t>Director of Product Development,  Asia</t>
+  </si>
+  <si>
+    <t>Director of Quality,  Asia</t>
+  </si>
+  <si>
+    <t>Sample Quality Engineering Project Leader</t>
+  </si>
+  <si>
+    <t>Manager of Strategic Sourcing</t>
+  </si>
+  <si>
+    <t>Manager of Strategy Execution</t>
+  </si>
+  <si>
+    <t>hn</t>
+  </si>
+  <si>
+    <t>Hannie Department</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Mei</t>
+  </si>
+  <si>
+    <t>KL</t>
   </si>
 </sst>
 </file>
@@ -617,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -631,728 +649,772 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/assets/departments_roles.xlsx
+++ b/assets/departments_roles.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anguyen\Downloads\CVRO Sussession Planning - Test\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F712392-AEB1-4845-83D1-5DCF29BDBAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2451E5EE-2D9E-453C-BF3E-5EB67B46B66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$75</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="99">
   <si>
     <t>Asia Human Resources</t>
   </si>
@@ -101,9 +104,6 @@
     <t>se</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>vp</t>
   </si>
   <si>
@@ -134,9 +134,6 @@
     <t>Engineering Project Manager</t>
   </si>
   <si>
-    <t>Senior Team Leader of Compliance Engineering</t>
-  </si>
-  <si>
     <t>Senior Team Leader of Product Engineering</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>Senior IT Specialist</t>
   </si>
   <si>
-    <t>Product Development Project Leader</t>
-  </si>
-  <si>
     <t>Senior Team Leader of Product Development</t>
   </si>
   <si>
@@ -287,12 +281,6 @@
     <t>Manager of HR and Admin</t>
   </si>
   <si>
-    <t>Director of Product Development,  Asia</t>
-  </si>
-  <si>
-    <t>Director of Quality,  Asia</t>
-  </si>
-  <si>
     <t>Sample Quality Engineering Project Leader</t>
   </si>
   <si>
@@ -302,22 +290,52 @@
     <t>Manager of Strategy Execution</t>
   </si>
   <si>
-    <t>hn</t>
-  </si>
-  <si>
-    <t>Hannie Department</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Esther</t>
-  </si>
-  <si>
-    <t>Mei</t>
-  </si>
-  <si>
-    <t>KL</t>
+    <t>3D Animation Artist</t>
+  </si>
+  <si>
+    <t>Product Content-Digital Asset Coordinator</t>
+  </si>
+  <si>
+    <t>Senior Team Leader of  Compliance Engineering</t>
+  </si>
+  <si>
+    <t>Senior System Engineer</t>
+  </si>
+  <si>
+    <t>System Engineer</t>
+  </si>
+  <si>
+    <t>Vice President of Sourcing</t>
+  </si>
+  <si>
+    <t>Director of Product Development, Asia</t>
+  </si>
+  <si>
+    <t>Manager of Product Development</t>
+  </si>
+  <si>
+    <t>Director of Quality, Asia</t>
+  </si>
+  <si>
+    <t>Senior Field Testing Coordinator</t>
+  </si>
+  <si>
+    <t>Quality Manager</t>
+  </si>
+  <si>
+    <t>Quality Project Manager</t>
+  </si>
+  <si>
+    <t>Senior Manager of Strategic Sourcing</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>under review</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -635,19 +653,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -657,8 +676,11 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -666,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -677,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -688,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -699,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -710,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -721,10 +743,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -732,10 +754,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -743,32 +765,32 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -776,10 +798,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -787,65 +809,65 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -853,21 +875,21 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -878,7 +900,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -889,7 +911,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -900,7 +922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -908,10 +930,10 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -919,10 +941,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -930,54 +952,60 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -985,10 +1013,10 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -996,10 +1024,10 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1007,54 +1035,54 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1062,10 +1090,10 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1073,10 +1101,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -1084,10 +1112,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -1095,10 +1123,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1106,54 +1134,57 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -1161,10 +1192,10 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -1172,10 +1203,10 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -1183,241 +1214,324 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" t="s">
         <v>6</v>
       </c>
-      <c r="C50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>21</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" t="s">
         <v>7</v>
       </c>
-      <c r="C52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>21</v>
       </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" t="s">
         <v>8</v>
       </c>
-      <c r="C56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>88</v>
-      </c>
-      <c r="B69" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" t="s">
-        <v>93</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D67" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>